--- a/contratos/contratos-7-2010.xlsx
+++ b/contratos/contratos-7-2010.xlsx
@@ -493,7 +493,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MOSCA OLGA RAQUEL</t>
@@ -544,7 +544,7 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -562,13 +562,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>HOSIFA CONSTRUCTORA S.A.</t>
@@ -916,391 +916,391 @@
     <t>41</t>
   </si>
   <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>1.208,00</t>
-  </si>
-  <si>
-    <t>34,44</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>1.810,00</t>
-  </si>
-  <si>
-    <t>34,10</t>
-  </si>
-  <si>
-    <t>2.476,56</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>1.326,76</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>12.760,00</t>
-  </si>
-  <si>
-    <t>25.900,00</t>
-  </si>
-  <si>
-    <t>83.321,75</t>
-  </si>
-  <si>
-    <t>1.290,50</t>
-  </si>
-  <si>
-    <t>22.213,63</t>
-  </si>
-  <si>
-    <t>1.509,46</t>
-  </si>
-  <si>
-    <t>6.031,66</t>
-  </si>
-  <si>
-    <t>6.447,46</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>4.005,00</t>
-  </si>
-  <si>
-    <t>200,35</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>792,00</t>
-  </si>
-  <si>
-    <t>9.153,00</t>
-  </si>
-  <si>
-    <t>258,85</t>
-  </si>
-  <si>
-    <t>111,10</t>
-  </si>
-  <si>
-    <t>93,42</t>
-  </si>
-  <si>
-    <t>6.775,38</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>2.680,00</t>
-  </si>
-  <si>
-    <t>2.419,48</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>1.784,06</t>
-  </si>
-  <si>
-    <t>319,51</t>
-  </si>
-  <si>
-    <t>29.437,36</t>
-  </si>
-  <si>
-    <t>12.527,30</t>
-  </si>
-  <si>
-    <t>9.144,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>606,20</t>
-  </si>
-  <si>
-    <t>4.327,29</t>
-  </si>
-  <si>
-    <t>228,80</t>
-  </si>
-  <si>
-    <t>9.358,00</t>
-  </si>
-  <si>
-    <t>340,92</t>
-  </si>
-  <si>
-    <t>678,00</t>
-  </si>
-  <si>
-    <t>971,00</t>
-  </si>
-  <si>
-    <t>2.416,46</t>
-  </si>
-  <si>
-    <t>1.440,50</t>
-  </si>
-  <si>
-    <t>11.328,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>4.674,67</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.509,10</t>
-  </si>
-  <si>
-    <t>10.595,20</t>
-  </si>
-  <si>
-    <t>12.250,00</t>
-  </si>
-  <si>
-    <t>8.505,00</t>
-  </si>
-  <si>
-    <t>4.176,00</t>
-  </si>
-  <si>
-    <t>1.301,80</t>
-  </si>
-  <si>
-    <t>4.038,00</t>
-  </si>
-  <si>
-    <t>3.479,54</t>
-  </si>
-  <si>
-    <t>370,00</t>
-  </si>
-  <si>
-    <t>208,00</t>
-  </si>
-  <si>
-    <t>5.814,00</t>
-  </si>
-  <si>
-    <t>95.670,00</t>
-  </si>
-  <si>
-    <t>330,40</t>
-  </si>
-  <si>
-    <t>325,48</t>
-  </si>
-  <si>
-    <t>623,00</t>
-  </si>
-  <si>
-    <t>408,00</t>
-  </si>
-  <si>
-    <t>961,30</t>
-  </si>
-  <si>
-    <t>12,86</t>
-  </si>
-  <si>
-    <t>17.105,55</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>16,00</t>
-  </si>
-  <si>
-    <t>8.846,90</t>
-  </si>
-  <si>
-    <t>20.969,00</t>
-  </si>
-  <si>
-    <t>4.019,20</t>
-  </si>
-  <si>
-    <t>16.696,80</t>
-  </si>
-  <si>
-    <t>4.055,39</t>
-  </si>
-  <si>
-    <t>17,16</t>
-  </si>
-  <si>
-    <t>1.183,70</t>
-  </si>
-  <si>
-    <t>1.617,20</t>
-  </si>
-  <si>
-    <t>52,49</t>
-  </si>
-  <si>
-    <t>118,25</t>
-  </si>
-  <si>
-    <t>37,60</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>26.920,00</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>149,16</t>
-  </si>
-  <si>
-    <t>185,07</t>
-  </si>
-  <si>
-    <t>713,50</t>
-  </si>
-  <si>
-    <t>787,93</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.504,70</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>7.127,25</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>18.075,00</t>
-  </si>
-  <si>
-    <t>198,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>1.144,00</t>
-  </si>
-  <si>
-    <t>3.610,96</t>
-  </si>
-  <si>
-    <t>1.226,00</t>
-  </si>
-  <si>
-    <t>1.401,00</t>
-  </si>
-  <si>
-    <t>1.968,56</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>1.003,10</t>
-  </si>
-  <si>
-    <t>59,40</t>
-  </si>
-  <si>
-    <t>404,39</t>
-  </si>
-  <si>
-    <t>1.809,10</t>
-  </si>
-  <si>
-    <t>6.536,00</t>
-  </si>
-  <si>
-    <t>1.758,00</t>
-  </si>
-  <si>
-    <t>8.174,48</t>
-  </si>
-  <si>
-    <t>2.685,22</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>1.127,36</t>
-  </si>
-  <si>
-    <t>344.598,13</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>55.500,00</t>
-  </si>
-  <si>
-    <t>231.255,63</t>
-  </si>
-  <si>
-    <t>456,00</t>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>1208.00</t>
+  </si>
+  <si>
+    <t>34.44</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>1810.00</t>
+  </si>
+  <si>
+    <t>34.10</t>
+  </si>
+  <si>
+    <t>2476.56</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>1326.76</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>12760.00</t>
+  </si>
+  <si>
+    <t>25900.00</t>
+  </si>
+  <si>
+    <t>83321.75</t>
+  </si>
+  <si>
+    <t>1290.50</t>
+  </si>
+  <si>
+    <t>22213.63</t>
+  </si>
+  <si>
+    <t>1509.46</t>
+  </si>
+  <si>
+    <t>6031.66</t>
+  </si>
+  <si>
+    <t>6447.46</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>4005.00</t>
+  </si>
+  <si>
+    <t>200.35</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>792.00</t>
+  </si>
+  <si>
+    <t>9153.00</t>
+  </si>
+  <si>
+    <t>258.85</t>
+  </si>
+  <si>
+    <t>111.10</t>
+  </si>
+  <si>
+    <t>93.42</t>
+  </si>
+  <si>
+    <t>6775.38</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>2680.00</t>
+  </si>
+  <si>
+    <t>2419.48</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>1784.06</t>
+  </si>
+  <si>
+    <t>319.51</t>
+  </si>
+  <si>
+    <t>29437.36</t>
+  </si>
+  <si>
+    <t>12527.30</t>
+  </si>
+  <si>
+    <t>9144.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>606.20</t>
+  </si>
+  <si>
+    <t>4327.29</t>
+  </si>
+  <si>
+    <t>228.80</t>
+  </si>
+  <si>
+    <t>9358.00</t>
+  </si>
+  <si>
+    <t>340.92</t>
+  </si>
+  <si>
+    <t>678.00</t>
+  </si>
+  <si>
+    <t>971.00</t>
+  </si>
+  <si>
+    <t>2416.46</t>
+  </si>
+  <si>
+    <t>1440.50</t>
+  </si>
+  <si>
+    <t>11328.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>4674.67</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1509.10</t>
+  </si>
+  <si>
+    <t>10595.20</t>
+  </si>
+  <si>
+    <t>12250.00</t>
+  </si>
+  <si>
+    <t>8505.00</t>
+  </si>
+  <si>
+    <t>4176.00</t>
+  </si>
+  <si>
+    <t>1301.80</t>
+  </si>
+  <si>
+    <t>4038.00</t>
+  </si>
+  <si>
+    <t>3479.54</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>208.00</t>
+  </si>
+  <si>
+    <t>5814.00</t>
+  </si>
+  <si>
+    <t>95670.00</t>
+  </si>
+  <si>
+    <t>330.40</t>
+  </si>
+  <si>
+    <t>325.48</t>
+  </si>
+  <si>
+    <t>623.00</t>
+  </si>
+  <si>
+    <t>408.00</t>
+  </si>
+  <si>
+    <t>961.30</t>
+  </si>
+  <si>
+    <t>12.86</t>
+  </si>
+  <si>
+    <t>17105.55</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>8846.90</t>
+  </si>
+  <si>
+    <t>20969.00</t>
+  </si>
+  <si>
+    <t>4019.20</t>
+  </si>
+  <si>
+    <t>16696.80</t>
+  </si>
+  <si>
+    <t>4055.39</t>
+  </si>
+  <si>
+    <t>17.16</t>
+  </si>
+  <si>
+    <t>1183.70</t>
+  </si>
+  <si>
+    <t>1617.20</t>
+  </si>
+  <si>
+    <t>52.49</t>
+  </si>
+  <si>
+    <t>118.25</t>
+  </si>
+  <si>
+    <t>37.60</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>26920.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>149.16</t>
+  </si>
+  <si>
+    <t>185.07</t>
+  </si>
+  <si>
+    <t>713.50</t>
+  </si>
+  <si>
+    <t>787.93</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2504.70</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>7127.25</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>18075.00</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>1144.00</t>
+  </si>
+  <si>
+    <t>3610.96</t>
+  </si>
+  <si>
+    <t>1226.00</t>
+  </si>
+  <si>
+    <t>1401.00</t>
+  </si>
+  <si>
+    <t>1968.56</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>1003.10</t>
+  </si>
+  <si>
+    <t>59.40</t>
+  </si>
+  <si>
+    <t>404.39</t>
+  </si>
+  <si>
+    <t>1809.10</t>
+  </si>
+  <si>
+    <t>6536.00</t>
+  </si>
+  <si>
+    <t>1758.00</t>
+  </si>
+  <si>
+    <t>8174.48</t>
+  </si>
+  <si>
+    <t>2685.22</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>1127.36</t>
+  </si>
+  <si>
+    <t>344598.13</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>55500.00</t>
+  </si>
+  <si>
+    <t>231255.63</t>
+  </si>
+  <si>
+    <t>456.00</t>
   </si>
 </sst>
 </file>
